--- a/public/Daftar Produk.xlsx
+++ b/public/Daftar Produk.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="8">
   <si>
     <t>No</t>
   </si>
@@ -29,7 +29,13 @@
     <t>Harga</t>
   </si>
   <si>
-    <t>Kompos</t>
+    <t>2023-12-30</t>
+  </si>
+  <si>
+    <t>Pupuk</t>
+  </si>
+  <si>
+    <t>2024-03-18</t>
   </si>
   <si>
     <t>Maggot</t>
@@ -372,7 +378,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -398,24 +404,42 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2"/>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2">
-        <v>200</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3"/>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D3">
         <v>5000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4">
+        <v>2000</v>
       </c>
     </row>
   </sheetData>
